--- a/biology/Biochimie/Déshydroalanine/Déshydroalanine.xlsx
+++ b/biology/Biochimie/Déshydroalanine/Déshydroalanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9shydroalanine</t>
+          <t>Déshydroalanine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La déshydroalanine (DHA), ou acide 2-aminoacrylique, est un acide aminé inhabituel insaturé présent dans les peptides d'origine microbienne ainsi que dans certaines protéines alimentaires courantes telles que la caséine après traitement par la chaleur ou par des bases telles que l'hydroxyde de sodium NaOH, qui déshydratent les résidus de sérine.
